--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIKASH\VIKAS' PROJECTS\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIKASH\VCOS\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131350DF-2995-4EF9-A65B-F9A7F4A7EBE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB260B3E-949B-4308-A75D-C0069D6B25AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{FCAD6BDA-CF32-42EB-B837-27662286FE36}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{522AA3C3-7E73-4B28-9A34-4D691DEF9917}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{3E2C399D-F5FB-40A1-89C1-A09CD4334B69}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{B73E0D38-D1BD-45C3-9459-48D04521A655}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{3E2C399D-F5FB-40A1-89C1-A09CD4334B69}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{522AA3C3-7E73-4B28-9A34-4D691DEF9917}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{FCAD6BDA-CF32-42EB-B837-27662286FE36}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2323,7 +2323,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2376,12 +2376,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2540,6 +2534,10 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2550,11 +2548,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2777,12 +2771,12 @@
   <dimension ref="A1:AB919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="55" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="51" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="49"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="88.21875" customWidth="1"/>
@@ -2792,11 +2786,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2822,11 +2816,11 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2851,9 +2845,9 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2881,9 +2875,9 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2975,7 +2969,7 @@
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="56" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2"/>
@@ -3009,7 +3003,7 @@
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3091,7 +3085,7 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="52" t="s">
         <v>695</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3324,7 +3318,8 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="57"/>
       <c r="B17" s="49">
         <v>6</v>
       </c>
@@ -3361,7 +3356,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="49">
         <v>7</v>
       </c>
@@ -3398,7 +3393,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="49">
         <v>8</v>
       </c>
@@ -3435,7 +3430,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="49">
         <v>9</v>
       </c>
@@ -3472,7 +3467,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49">
         <v>10</v>
       </c>
@@ -3509,7 +3504,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="49">
         <v>11</v>
       </c>
@@ -3546,7 +3541,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="49">
         <v>12</v>
       </c>
@@ -3583,7 +3578,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="49">
         <v>13</v>
       </c>
@@ -3620,7 +3615,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="49">
         <v>14</v>
       </c>
@@ -3657,7 +3652,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="49">
         <v>15</v>
       </c>
@@ -3694,7 +3689,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="49">
         <v>16</v>
       </c>
@@ -3731,7 +3726,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="49">
         <v>17</v>
       </c>
@@ -3768,7 +3763,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="49">
         <v>18</v>
       </c>
@@ -3805,7 +3800,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B30" s="49">
         <v>19</v>
       </c>
@@ -3842,7 +3837,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B31" s="49">
         <v>20</v>
       </c>
@@ -3879,7 +3874,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B32" s="49">
         <v>21</v>
       </c>
@@ -31774,21 +31769,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3E2C399D-F5FB-40A1-89C1-A09CD4334B69}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FCAD6BDA-CF32-42EB-B837-27662286FE36}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A293:C332" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{522AA3C3-7E73-4B28-9A34-4D691DEF9917}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{B73E0D38-D1BD-45C3-9459-48D04521A655}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A11:D37" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{522AA3C3-7E73-4B28-9A34-4D691DEF9917}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3E2C399D-F5FB-40A1-89C1-A09CD4334B69}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{FCAD6BDA-CF32-42EB-B837-27662286FE36}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A11:C37" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -32198,28 +32193,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
